--- a/campbell.xlsx
+++ b/campbell.xlsx
@@ -14,6 +14,44 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$D$2:$D$4,Sheet1!$G$2:$G$4</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$F$2:$F$4</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Sheet1!$G$2:$G$4</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Sheet1!$H$5</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$I$5</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Sheet1!$E$2:$E$4</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">Sheet1!$B$6</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -69,10 +107,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -105,8 +150,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -444,26 +490,26 @@
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>20.813852833566376</v>
       </c>
       <c r="E2">
         <f>600-25*D2</f>
-        <v>600</v>
+        <v>79.653679160840625</v>
       </c>
       <c r="F2">
         <f>D2-B2</f>
-        <v>-17</v>
+        <v>3.8138528335663757</v>
       </c>
       <c r="G2" s="1">
-        <v>2</v>
+        <v>79.653679319710619</v>
       </c>
       <c r="H2">
         <f>G2*C2</f>
-        <v>2</v>
+        <v>79.653679319710619</v>
       </c>
       <c r="I2">
         <f>G2*F2</f>
-        <v>-34</v>
+        <v>303.78741057746578</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -477,26 +523,26 @@
         <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>24.830447369017175</v>
       </c>
       <c r="E3">
         <f>500-18*D3</f>
-        <v>500</v>
+        <v>53.051947357690835</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F4" si="0">D3-B3</f>
-        <v>-20</v>
+        <v>4.8304473690171754</v>
       </c>
       <c r="G3" s="1">
-        <v>3</v>
+        <v>53.051947791287127</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H4" si="1">G3*C3</f>
-        <v>9</v>
+        <v>159.15584337386139</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I4" si="2">G3*F3</f>
-        <v>-60</v>
+        <v>256.26464162965948</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -510,40 +556,40 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>31.309523836260471</v>
       </c>
       <c r="E4">
         <f>400-11*D4</f>
-        <v>400</v>
+        <v>55.595237801134829</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>-25</v>
+        <v>6.3095238362604711</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>55.59523865321399</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>111.19047730642798</v>
       </c>
       <c r="I4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>350.77948346504314</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G5">
         <f>SUM(G2:G4)</f>
-        <v>5</v>
+        <v>188.30086576421172</v>
       </c>
       <c r="H5">
         <f t="shared" ref="H5:I5" si="3">SUM(H2:H4)</f>
-        <v>11</v>
-      </c>
-      <c r="I5">
+        <v>350</v>
+      </c>
+      <c r="I5" s="2">
         <f t="shared" si="3"/>
-        <v>-94</v>
+        <v>910.83153567216846</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
